--- a/data/pca/factorExposure/factorExposure_2011-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01394828333694155</v>
+        <v>0.01448419774031132</v>
       </c>
       <c r="C2">
-        <v>0.03135152983106045</v>
+        <v>0.002482849173761624</v>
       </c>
       <c r="D2">
-        <v>-0.02115200366007528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03270363039505098</v>
+      </c>
+      <c r="E2">
+        <v>-0.0006073250617632591</v>
+      </c>
+      <c r="F2">
+        <v>0.03992775499100072</v>
+      </c>
+      <c r="G2">
+        <v>-0.01507927922893878</v>
+      </c>
+      <c r="H2">
+        <v>0.01596986368399828</v>
+      </c>
+      <c r="I2">
+        <v>0.011395776553113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07823843382913591</v>
+        <v>0.09096036973601503</v>
       </c>
       <c r="C4">
-        <v>0.04814488460508953</v>
+        <v>-0.04347304559325681</v>
       </c>
       <c r="D4">
-        <v>-0.09117020553479054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07555780573259922</v>
+      </c>
+      <c r="E4">
+        <v>0.0255103187381156</v>
+      </c>
+      <c r="F4">
+        <v>0.0500644254750857</v>
+      </c>
+      <c r="G4">
+        <v>0.02330316186673165</v>
+      </c>
+      <c r="H4">
+        <v>-0.0304705984551355</v>
+      </c>
+      <c r="I4">
+        <v>-0.06628445299729506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1155145081569903</v>
+        <v>0.1264326819442689</v>
       </c>
       <c r="C6">
-        <v>0.04604802329967451</v>
+        <v>0.008878871906859383</v>
       </c>
       <c r="D6">
-        <v>-0.01066413119182092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03373939494489969</v>
+      </c>
+      <c r="E6">
+        <v>-0.01964105455223935</v>
+      </c>
+      <c r="F6">
+        <v>0.04380880995698692</v>
+      </c>
+      <c r="G6">
+        <v>0.05620057129133426</v>
+      </c>
+      <c r="H6">
+        <v>0.1859792253064604</v>
+      </c>
+      <c r="I6">
+        <v>-0.01038468396557814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0628192208363498</v>
+        <v>0.06712293702728164</v>
       </c>
       <c r="C7">
-        <v>0.03873258444960362</v>
+        <v>-0.03568852011188522</v>
       </c>
       <c r="D7">
-        <v>-0.04000793716521561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0537335784082731</v>
+      </c>
+      <c r="E7">
+        <v>0.01543010668085824</v>
+      </c>
+      <c r="F7">
+        <v>0.05794986432979214</v>
+      </c>
+      <c r="G7">
+        <v>-0.02140466333453007</v>
+      </c>
+      <c r="H7">
+        <v>-0.01375127342069934</v>
+      </c>
+      <c r="I7">
+        <v>-0.04569777999117109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03987960130543465</v>
+        <v>0.04370532979513819</v>
       </c>
       <c r="C8">
-        <v>-0.009470013557051762</v>
+        <v>-0.02757047221373759</v>
       </c>
       <c r="D8">
-        <v>-0.06764339779928019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.009639830078940889</v>
+      </c>
+      <c r="E8">
+        <v>0.03689168129145225</v>
+      </c>
+      <c r="F8">
+        <v>0.0707938637130202</v>
+      </c>
+      <c r="G8">
+        <v>0.05069809142688009</v>
+      </c>
+      <c r="H8">
+        <v>0.01706498601581064</v>
+      </c>
+      <c r="I8">
+        <v>-0.1123751484150554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07426558594055581</v>
+        <v>0.08338008245338673</v>
       </c>
       <c r="C9">
-        <v>0.03511334772215995</v>
+        <v>-0.04103145470668058</v>
       </c>
       <c r="D9">
-        <v>-0.07974407771007064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06014859816291572</v>
+      </c>
+      <c r="E9">
+        <v>0.0281579935289787</v>
+      </c>
+      <c r="F9">
+        <v>0.04694602151227503</v>
+      </c>
+      <c r="G9">
+        <v>0.04007443937755634</v>
+      </c>
+      <c r="H9">
+        <v>-0.03028681611088119</v>
+      </c>
+      <c r="I9">
+        <v>-0.07279482601414211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02451374440279229</v>
+        <v>0.0560461317988701</v>
       </c>
       <c r="C10">
-        <v>0.0294525751790308</v>
+        <v>0.1865424803567297</v>
       </c>
       <c r="D10">
-        <v>0.1677993653745546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.05404007525741193</v>
+      </c>
+      <c r="E10">
+        <v>0.009435998805918012</v>
+      </c>
+      <c r="F10">
+        <v>0.0567694975467205</v>
+      </c>
+      <c r="G10">
+        <v>-0.04055980875897509</v>
+      </c>
+      <c r="H10">
+        <v>0.0388164343521159</v>
+      </c>
+      <c r="I10">
+        <v>0.0517444619879789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.07008659366586008</v>
+        <v>0.07363960224040261</v>
       </c>
       <c r="C11">
-        <v>0.03180593576833887</v>
+        <v>-0.04047972896661404</v>
       </c>
       <c r="D11">
-        <v>-0.05909862339179337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04861506113367334</v>
+      </c>
+      <c r="E11">
+        <v>0.008246826870105492</v>
+      </c>
+      <c r="F11">
+        <v>0.04178299652882947</v>
+      </c>
+      <c r="G11">
+        <v>0.04839201143114746</v>
+      </c>
+      <c r="H11">
+        <v>-0.05688303794121556</v>
+      </c>
+      <c r="I11">
+        <v>-0.06616131345410779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06579751622434037</v>
+        <v>0.07070646375157913</v>
       </c>
       <c r="C12">
-        <v>0.04279072471137224</v>
+        <v>-0.02677602736645096</v>
       </c>
       <c r="D12">
-        <v>-0.05035422670654639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05026430623969843</v>
+      </c>
+      <c r="E12">
+        <v>0.01727519591556525</v>
+      </c>
+      <c r="F12">
+        <v>0.03212870793975162</v>
+      </c>
+      <c r="G12">
+        <v>0.02026037926343547</v>
+      </c>
+      <c r="H12">
+        <v>-0.02432288693095188</v>
+      </c>
+      <c r="I12">
+        <v>-0.08867348833740771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06765835424543014</v>
+        <v>0.06693373336571888</v>
       </c>
       <c r="C13">
-        <v>0.043305749891637</v>
+        <v>-0.0221294857534152</v>
       </c>
       <c r="D13">
-        <v>-0.06189129030848473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05000100949630865</v>
+      </c>
+      <c r="E13">
+        <v>0.05253095033182715</v>
+      </c>
+      <c r="F13">
+        <v>0.02743560786441059</v>
+      </c>
+      <c r="G13">
+        <v>0.008292044622895137</v>
+      </c>
+      <c r="H13">
+        <v>-0.03019560587228467</v>
+      </c>
+      <c r="I13">
+        <v>-0.08966284949318867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03074790980389336</v>
+        <v>0.04133622608629488</v>
       </c>
       <c r="C14">
-        <v>0.0317512052540191</v>
+        <v>0.004165157648499328</v>
       </c>
       <c r="D14">
-        <v>-0.0009355255098788528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03471214462436881</v>
+      </c>
+      <c r="E14">
+        <v>0.01933460823713771</v>
+      </c>
+      <c r="F14">
+        <v>0.02441553052595251</v>
+      </c>
+      <c r="G14">
+        <v>0.0235506192601278</v>
+      </c>
+      <c r="H14">
+        <v>-0.06694661009946576</v>
+      </c>
+      <c r="I14">
+        <v>-0.0563587571076059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04506571363685736</v>
+        <v>0.04113488286372691</v>
       </c>
       <c r="C15">
-        <v>0.006008023112120634</v>
+        <v>-0.01249184802642688</v>
       </c>
       <c r="D15">
-        <v>-0.02740097052939503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007374986832996448</v>
+      </c>
+      <c r="E15">
+        <v>0.04092868793608589</v>
+      </c>
+      <c r="F15">
+        <v>0.003537877063787136</v>
+      </c>
+      <c r="G15">
+        <v>0.02260396773010988</v>
+      </c>
+      <c r="H15">
+        <v>-0.01891986067154786</v>
+      </c>
+      <c r="I15">
+        <v>-0.03217845429079866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05939842518535157</v>
+        <v>0.07088665952414101</v>
       </c>
       <c r="C16">
-        <v>0.03448711923851807</v>
+        <v>-0.03958140056806751</v>
       </c>
       <c r="D16">
-        <v>-0.06147833418846652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05654906249963065</v>
+      </c>
+      <c r="E16">
+        <v>0.01577018814828634</v>
+      </c>
+      <c r="F16">
+        <v>0.03575593650261458</v>
+      </c>
+      <c r="G16">
+        <v>0.02201210602096831</v>
+      </c>
+      <c r="H16">
+        <v>-0.03522397292460633</v>
+      </c>
+      <c r="I16">
+        <v>-0.04569401250337011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0636023365535047</v>
+        <v>0.06297546561993445</v>
       </c>
       <c r="C20">
-        <v>0.01656873350779074</v>
+        <v>-0.03207984325404951</v>
       </c>
       <c r="D20">
-        <v>-0.05477456915600684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02825266052891914</v>
+      </c>
+      <c r="E20">
+        <v>0.004134119307230934</v>
+      </c>
+      <c r="F20">
+        <v>0.03154226807699315</v>
+      </c>
+      <c r="G20">
+        <v>0.01789870506483932</v>
+      </c>
+      <c r="H20">
+        <v>-0.04391701244801136</v>
+      </c>
+      <c r="I20">
+        <v>-0.09482141125364395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03397949839444023</v>
+        <v>0.0275897504947218</v>
       </c>
       <c r="C21">
-        <v>0.004009947903026402</v>
+        <v>-0.0200992247777246</v>
       </c>
       <c r="D21">
-        <v>-0.01132598779743145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.006981454799985308</v>
+      </c>
+      <c r="E21">
+        <v>0.0366292010653033</v>
+      </c>
+      <c r="F21">
+        <v>9.261132267018122e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.005606850840537824</v>
+      </c>
+      <c r="H21">
+        <v>0.05158914279208544</v>
+      </c>
+      <c r="I21">
+        <v>-0.03580358706378742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.1083155488365911</v>
+        <v>0.08974494864834014</v>
       </c>
       <c r="C22">
-        <v>0.0193658310085044</v>
+        <v>-0.05600244196899962</v>
       </c>
       <c r="D22">
-        <v>-0.08871507000592696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01989277019536697</v>
+      </c>
+      <c r="E22">
+        <v>0.5567727947439318</v>
+      </c>
+      <c r="F22">
+        <v>0.04917231152875834</v>
+      </c>
+      <c r="G22">
+        <v>-0.2553066514867203</v>
+      </c>
+      <c r="H22">
+        <v>0.1503541540404124</v>
+      </c>
+      <c r="I22">
+        <v>0.2355105893632323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.109013589198341</v>
+        <v>0.09058475140464901</v>
       </c>
       <c r="C23">
-        <v>0.02028172334134033</v>
+        <v>-0.05612218056421767</v>
       </c>
       <c r="D23">
-        <v>-0.08884516799298002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0210515864558952</v>
+      </c>
+      <c r="E23">
+        <v>0.5600951668405605</v>
+      </c>
+      <c r="F23">
+        <v>0.0509845284808185</v>
+      </c>
+      <c r="G23">
+        <v>-0.2496113333735681</v>
+      </c>
+      <c r="H23">
+        <v>0.1499495074910641</v>
+      </c>
+      <c r="I23">
+        <v>0.2381169031804777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07733969198501052</v>
+        <v>0.08117100888983914</v>
       </c>
       <c r="C24">
-        <v>0.0397850734385277</v>
+        <v>-0.0364132647983361</v>
       </c>
       <c r="D24">
-        <v>-0.0638628010428255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05431189847064902</v>
+      </c>
+      <c r="E24">
+        <v>0.02063207735578595</v>
+      </c>
+      <c r="F24">
+        <v>0.04425008707426049</v>
+      </c>
+      <c r="G24">
+        <v>0.03958652387488722</v>
+      </c>
+      <c r="H24">
+        <v>-0.02551227771054362</v>
+      </c>
+      <c r="I24">
+        <v>-0.06524680134660137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0751310359173252</v>
+        <v>0.07861033024172498</v>
       </c>
       <c r="C25">
-        <v>0.04632198513297946</v>
+        <v>-0.02695533108515703</v>
       </c>
       <c r="D25">
-        <v>-0.06251329207160257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05633663722096483</v>
+      </c>
+      <c r="E25">
+        <v>0.03068985679339394</v>
+      </c>
+      <c r="F25">
+        <v>0.04068177618957157</v>
+      </c>
+      <c r="G25">
+        <v>0.04131962424178326</v>
+      </c>
+      <c r="H25">
+        <v>-0.03174209382888518</v>
+      </c>
+      <c r="I25">
+        <v>-0.07428770162127903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04756873129912824</v>
+        <v>0.04785992396650342</v>
       </c>
       <c r="C26">
-        <v>0.006108350925408008</v>
+        <v>-0.01491071187807495</v>
       </c>
       <c r="D26">
-        <v>-0.0123479671793374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006497486215783306</v>
+      </c>
+      <c r="E26">
+        <v>0.04064899691664857</v>
+      </c>
+      <c r="F26">
+        <v>0.03308022787149852</v>
+      </c>
+      <c r="G26">
+        <v>0.02246997363347689</v>
+      </c>
+      <c r="H26">
+        <v>-0.03636422292868084</v>
+      </c>
+      <c r="I26">
+        <v>-0.01028078203901973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05292939479264167</v>
+        <v>0.08009946085999164</v>
       </c>
       <c r="C28">
-        <v>0.09231568769591428</v>
+        <v>0.3071950974928373</v>
       </c>
       <c r="D28">
-        <v>0.3031215750228901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.07476209325699315</v>
+      </c>
+      <c r="E28">
+        <v>0.01712424981387662</v>
+      </c>
+      <c r="F28">
+        <v>0.04636797291869516</v>
+      </c>
+      <c r="G28">
+        <v>0.02996895641517355</v>
+      </c>
+      <c r="H28">
+        <v>0.07993566202499637</v>
+      </c>
+      <c r="I28">
+        <v>0.01958741725043464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.04994842293882704</v>
+        <v>0.052567252405916</v>
       </c>
       <c r="C29">
-        <v>0.04093842539135228</v>
+        <v>0.003833664238904316</v>
       </c>
       <c r="D29">
-        <v>-0.004679851104154043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03626377269962043</v>
+      </c>
+      <c r="E29">
+        <v>0.03974668021138914</v>
+      </c>
+      <c r="F29">
+        <v>0.0365205286632633</v>
+      </c>
+      <c r="G29">
+        <v>0.007815787201300122</v>
+      </c>
+      <c r="H29">
+        <v>-0.0896918712180291</v>
+      </c>
+      <c r="I29">
+        <v>-0.0504157223900081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1400143901991992</v>
+        <v>0.1310340139574031</v>
       </c>
       <c r="C30">
-        <v>0.07098535275628795</v>
+        <v>-0.03363209934973401</v>
       </c>
       <c r="D30">
-        <v>-0.1030618389193606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07899591165247663</v>
+      </c>
+      <c r="E30">
+        <v>0.0704840066118768</v>
+      </c>
+      <c r="F30">
+        <v>0.06460007402295866</v>
+      </c>
+      <c r="G30">
+        <v>0.0584973930441401</v>
+      </c>
+      <c r="H30">
+        <v>0.0508960218589933</v>
+      </c>
+      <c r="I30">
+        <v>-0.2997703379139433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05020060293283265</v>
+        <v>0.04772356822692814</v>
       </c>
       <c r="C31">
-        <v>0.02158665270733697</v>
+        <v>-0.02611420070489074</v>
       </c>
       <c r="D31">
-        <v>-0.02214507855557355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02835634896473961</v>
+      </c>
+      <c r="E31">
+        <v>0.02513585123837065</v>
+      </c>
+      <c r="F31">
+        <v>0.01346344894561298</v>
+      </c>
+      <c r="G31">
+        <v>-0.006331615066635331</v>
+      </c>
+      <c r="H31">
+        <v>-0.06498674661376834</v>
+      </c>
+      <c r="I31">
+        <v>-0.02551265269854263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03620559452707708</v>
+        <v>0.0427904293150709</v>
       </c>
       <c r="C32">
-        <v>0.007560181653607678</v>
+        <v>0.002157811998065613</v>
       </c>
       <c r="D32">
-        <v>-0.03524889328923393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01130523861848954</v>
+      </c>
+      <c r="E32">
+        <v>0.07748977645803239</v>
+      </c>
+      <c r="F32">
+        <v>-0.0007511525027054701</v>
+      </c>
+      <c r="G32">
+        <v>0.02038668943420278</v>
+      </c>
+      <c r="H32">
+        <v>0.02162184151569811</v>
+      </c>
+      <c r="I32">
+        <v>0.01392509788382813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.09061300192775668</v>
+        <v>0.09462968024407835</v>
       </c>
       <c r="C33">
-        <v>0.03684251211506973</v>
+        <v>-0.03517750062753357</v>
       </c>
       <c r="D33">
-        <v>-0.05162372586201552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04599100316812637</v>
+      </c>
+      <c r="E33">
+        <v>0.0283054577722409</v>
+      </c>
+      <c r="F33">
+        <v>0.004655935813840622</v>
+      </c>
+      <c r="G33">
+        <v>-0.00345678920956886</v>
+      </c>
+      <c r="H33">
+        <v>-0.05808898249390386</v>
+      </c>
+      <c r="I33">
+        <v>-0.07575206832549866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.06011882167475704</v>
+        <v>0.06828022598604414</v>
       </c>
       <c r="C34">
-        <v>0.01774463886563026</v>
+        <v>-0.03442843770919767</v>
       </c>
       <c r="D34">
-        <v>-0.05682362514310658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03489042920312715</v>
+      </c>
+      <c r="E34">
+        <v>0.02029339406998631</v>
+      </c>
+      <c r="F34">
+        <v>0.02732037555522266</v>
+      </c>
+      <c r="G34">
+        <v>0.02495269275531752</v>
+      </c>
+      <c r="H34">
+        <v>-0.04650429609090865</v>
+      </c>
+      <c r="I34">
+        <v>-0.05097025421686507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03764579530269591</v>
+        <v>0.03729036827243253</v>
       </c>
       <c r="C35">
-        <v>0.01270433368113561</v>
+        <v>-0.0120256100517313</v>
       </c>
       <c r="D35">
-        <v>-0.01880881858956726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01695439080406663</v>
+      </c>
+      <c r="E35">
+        <v>0.01696050498061702</v>
+      </c>
+      <c r="F35">
+        <v>-0.01009752170466232</v>
+      </c>
+      <c r="G35">
+        <v>0.000401755219661394</v>
+      </c>
+      <c r="H35">
+        <v>-0.03431536649668548</v>
+      </c>
+      <c r="I35">
+        <v>-0.04981475570359981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.03115347239444857</v>
+        <v>0.0313163816050429</v>
       </c>
       <c r="C36">
-        <v>0.01259853804613618</v>
+        <v>-0.01121423924235171</v>
       </c>
       <c r="D36">
-        <v>-0.01976685778898616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01585667494850324</v>
+      </c>
+      <c r="E36">
+        <v>0.03391003196454067</v>
+      </c>
+      <c r="F36">
+        <v>0.03745578707568883</v>
+      </c>
+      <c r="G36">
+        <v>0.01416192189548308</v>
+      </c>
+      <c r="H36">
+        <v>-0.03651454287791413</v>
+      </c>
+      <c r="I36">
+        <v>-0.06384297812000189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06705121870939813</v>
+        <v>0.05584488006467053</v>
       </c>
       <c r="C38">
-        <v>-0.0006345448194018601</v>
+        <v>-0.02869504794207879</v>
       </c>
       <c r="D38">
-        <v>0.002931168013111367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.002840112422690525</v>
+      </c>
+      <c r="E38">
+        <v>0.04737998947054459</v>
+      </c>
+      <c r="F38">
+        <v>0.003231801990764852</v>
+      </c>
+      <c r="G38">
+        <v>-0.01368704757177408</v>
+      </c>
+      <c r="H38">
+        <v>-0.02757988589683388</v>
+      </c>
+      <c r="I38">
+        <v>-0.03986563977047917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09834207441567394</v>
+        <v>0.1021855097858942</v>
       </c>
       <c r="C39">
-        <v>0.05862558500673407</v>
+        <v>-0.02654859125240773</v>
       </c>
       <c r="D39">
-        <v>-0.04711994528170913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06620288627519134</v>
+      </c>
+      <c r="E39">
+        <v>0.01241400041661182</v>
+      </c>
+      <c r="F39">
+        <v>0.02294617088569384</v>
+      </c>
+      <c r="G39">
+        <v>0.03953995366419074</v>
+      </c>
+      <c r="H39">
+        <v>-0.01189765721083955</v>
+      </c>
+      <c r="I39">
+        <v>-0.05867084344110241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07894587663061778</v>
+        <v>0.05654900677249239</v>
       </c>
       <c r="C40">
-        <v>0.01765727703929344</v>
+        <v>-0.03503405710644181</v>
       </c>
       <c r="D40">
-        <v>-0.02069325077480474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.007984014898454357</v>
+      </c>
+      <c r="E40">
+        <v>0.06668089513196028</v>
+      </c>
+      <c r="F40">
+        <v>-0.01286557194298227</v>
+      </c>
+      <c r="G40">
+        <v>0.03979589927805378</v>
+      </c>
+      <c r="H40">
+        <v>0.05330022515722058</v>
+      </c>
+      <c r="I40">
+        <v>-0.2481204518395764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0502012054349782</v>
+        <v>0.0480970946589154</v>
       </c>
       <c r="C41">
-        <v>0.007142115518172528</v>
+        <v>-0.02973465810406005</v>
       </c>
       <c r="D41">
-        <v>-0.03225689940960599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01582872995042247</v>
+      </c>
+      <c r="E41">
+        <v>-0.00108626066106107</v>
+      </c>
+      <c r="F41">
+        <v>-0.008757981637916704</v>
+      </c>
+      <c r="G41">
+        <v>0.01258769410400447</v>
+      </c>
+      <c r="H41">
+        <v>-0.03706526867671157</v>
+      </c>
+      <c r="I41">
+        <v>-0.03603511047006568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05813599365424251</v>
+        <v>0.06212571064053184</v>
       </c>
       <c r="C43">
-        <v>0.02721609969827663</v>
+        <v>-0.01922629299967448</v>
       </c>
       <c r="D43">
-        <v>-0.01173605985843317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0313701343636572</v>
+      </c>
+      <c r="E43">
+        <v>0.01760003080519155</v>
+      </c>
+      <c r="F43">
+        <v>0.02182065211664354</v>
+      </c>
+      <c r="G43">
+        <v>-0.01075355009428232</v>
+      </c>
+      <c r="H43">
+        <v>-0.05689940421097684</v>
+      </c>
+      <c r="I43">
+        <v>-0.004448471319993618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.09738620419372121</v>
+        <v>0.09500007984081169</v>
       </c>
       <c r="C44">
-        <v>0.0102618329856484</v>
+        <v>-0.04327344013617324</v>
       </c>
       <c r="D44">
-        <v>-0.05096294700937549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02294093977515932</v>
+      </c>
+      <c r="E44">
+        <v>0.07642674001595515</v>
+      </c>
+      <c r="F44">
+        <v>0.1012222028397763</v>
+      </c>
+      <c r="G44">
+        <v>0.06161267710175831</v>
+      </c>
+      <c r="H44">
+        <v>-0.0491119596525884</v>
+      </c>
+      <c r="I44">
+        <v>-0.1086483859974237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02735615731285707</v>
+        <v>0.03947541627173369</v>
       </c>
       <c r="C46">
-        <v>0.01914703974527868</v>
+        <v>-0.02152561872641074</v>
       </c>
       <c r="D46">
-        <v>-0.03466347405448442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03718661640391538</v>
+      </c>
+      <c r="E46">
+        <v>0.03127406009165117</v>
+      </c>
+      <c r="F46">
+        <v>0.02701929688816257</v>
+      </c>
+      <c r="G46">
+        <v>-0.005433481778075355</v>
+      </c>
+      <c r="H46">
+        <v>-0.03025680989751154</v>
+      </c>
+      <c r="I46">
+        <v>-0.01913230892921079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03706471025912665</v>
+        <v>0.04473144145806775</v>
       </c>
       <c r="C47">
-        <v>0.02162326159269155</v>
+        <v>3.653956284938903e-05</v>
       </c>
       <c r="D47">
-        <v>0.002018650800709969</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02075176036816457</v>
+      </c>
+      <c r="E47">
+        <v>0.04559430554386681</v>
+      </c>
+      <c r="F47">
+        <v>0.003950975823798035</v>
+      </c>
+      <c r="G47">
+        <v>-0.03498675736978854</v>
+      </c>
+      <c r="H47">
+        <v>-0.0262107800511242</v>
+      </c>
+      <c r="I47">
+        <v>-0.04769040761249078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04309259332860949</v>
+        <v>0.04336920078232177</v>
       </c>
       <c r="C48">
-        <v>0.01892959759554943</v>
+        <v>-0.009634880880129405</v>
       </c>
       <c r="D48">
-        <v>-0.03036804457628833</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01796891365486228</v>
+      </c>
+      <c r="E48">
+        <v>0.04976869626044675</v>
+      </c>
+      <c r="F48">
+        <v>0.01403143734355466</v>
+      </c>
+      <c r="G48">
+        <v>0.008031025089802635</v>
+      </c>
+      <c r="H48">
+        <v>-0.01293166634452274</v>
+      </c>
+      <c r="I48">
+        <v>-0.04028277949569852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1654839181304549</v>
+        <v>0.2005934902370477</v>
       </c>
       <c r="C49">
-        <v>0.0382172657451558</v>
+        <v>-0.009864528993704888</v>
       </c>
       <c r="D49">
-        <v>-0.02486705330440902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04708397689632206</v>
+      </c>
+      <c r="E49">
+        <v>-0.2147266424854776</v>
+      </c>
+      <c r="F49">
+        <v>-0.0128474648195491</v>
+      </c>
+      <c r="G49">
+        <v>-0.1273566534045394</v>
+      </c>
+      <c r="H49">
+        <v>0.2112050923112535</v>
+      </c>
+      <c r="I49">
+        <v>0.05980117624773012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04997293696351759</v>
+        <v>0.05123210225923481</v>
       </c>
       <c r="C50">
-        <v>0.0311197242902021</v>
+        <v>-0.02097586577779162</v>
       </c>
       <c r="D50">
-        <v>-0.03714838736086183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04000754081755468</v>
+      </c>
+      <c r="E50">
+        <v>0.02864754022431324</v>
+      </c>
+      <c r="F50">
+        <v>0.01128318099981923</v>
+      </c>
+      <c r="G50">
+        <v>0.006579790326114277</v>
+      </c>
+      <c r="H50">
+        <v>-0.06694057458577193</v>
+      </c>
+      <c r="I50">
+        <v>-0.02329739963521224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02695584845738481</v>
+        <v>0.03506434318262027</v>
       </c>
       <c r="C51">
-        <v>-0.002389442271860976</v>
+        <v>0.003820875705615456</v>
       </c>
       <c r="D51">
-        <v>0.0102525134161403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.008381269218587034</v>
+      </c>
+      <c r="E51">
+        <v>-0.008938712937080259</v>
+      </c>
+      <c r="F51">
+        <v>0.01131678137653976</v>
+      </c>
+      <c r="G51">
+        <v>-0.02166925852396715</v>
+      </c>
+      <c r="H51">
+        <v>0.01901470230867892</v>
+      </c>
+      <c r="I51">
+        <v>0.0150337328693882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1585260154691779</v>
+        <v>0.1618091238187321</v>
       </c>
       <c r="C53">
-        <v>0.07312028852219175</v>
+        <v>0.007544438199543042</v>
       </c>
       <c r="D53">
-        <v>0.005064909433894342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05370213643047111</v>
+      </c>
+      <c r="E53">
+        <v>-0.02327367923969948</v>
+      </c>
+      <c r="F53">
+        <v>-0.005838736144240762</v>
+      </c>
+      <c r="G53">
+        <v>-0.0007724578517417128</v>
+      </c>
+      <c r="H53">
+        <v>-0.2039887333343446</v>
+      </c>
+      <c r="I53">
+        <v>0.1153694315545113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.06200445498000497</v>
+        <v>0.06178372840542976</v>
       </c>
       <c r="C54">
-        <v>0.02162585099128411</v>
+        <v>-0.0003111596299038006</v>
       </c>
       <c r="D54">
-        <v>-0.0209368655644447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01945064372760138</v>
+      </c>
+      <c r="E54">
+        <v>0.06315580413826835</v>
+      </c>
+      <c r="F54">
+        <v>0.03576802409876947</v>
+      </c>
+      <c r="G54">
+        <v>0.0451537832249126</v>
+      </c>
+      <c r="H54">
+        <v>-0.03916105723833153</v>
+      </c>
+      <c r="I54">
+        <v>-0.1189260812473945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1021295226223319</v>
+        <v>0.1019313448319255</v>
       </c>
       <c r="C55">
-        <v>0.04506654488113636</v>
+        <v>-0.01023591994953007</v>
       </c>
       <c r="D55">
-        <v>-0.01585467510853126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04051825123684647</v>
+      </c>
+      <c r="E55">
+        <v>-0.003195334392519053</v>
+      </c>
+      <c r="F55">
+        <v>0.01979577213921854</v>
+      </c>
+      <c r="G55">
+        <v>0.02264999973984055</v>
+      </c>
+      <c r="H55">
+        <v>-0.1586978791161866</v>
+      </c>
+      <c r="I55">
+        <v>0.03704806437667667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1475078615804651</v>
+        <v>0.1516350091937442</v>
       </c>
       <c r="C56">
-        <v>0.0879875327498066</v>
+        <v>-0.005472803460702365</v>
       </c>
       <c r="D56">
-        <v>-0.002759033964249838</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0742588188472692</v>
+      </c>
+      <c r="E56">
+        <v>-0.01137392924549909</v>
+      </c>
+      <c r="F56">
+        <v>0.01294025928672583</v>
+      </c>
+      <c r="G56">
+        <v>0.02252873991681393</v>
+      </c>
+      <c r="H56">
+        <v>-0.1944908616011019</v>
+      </c>
+      <c r="I56">
+        <v>0.1241821860207407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1160718646742528</v>
+        <v>0.08677746028266994</v>
       </c>
       <c r="C58">
-        <v>-0.05031471800683832</v>
+        <v>-0.06525494470859029</v>
       </c>
       <c r="D58">
-        <v>-0.05815703837855426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.05625487067647764</v>
+      </c>
+      <c r="E58">
+        <v>0.1218928184925148</v>
+      </c>
+      <c r="F58">
+        <v>0.05360056559535319</v>
+      </c>
+      <c r="G58">
+        <v>-0.120509470099642</v>
+      </c>
+      <c r="H58">
+        <v>0.1703191913238881</v>
+      </c>
+      <c r="I58">
+        <v>-0.5480254663384799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1286074811018701</v>
+        <v>0.1521177870309506</v>
       </c>
       <c r="C59">
-        <v>0.09759273738967109</v>
+        <v>0.3486654012908971</v>
       </c>
       <c r="D59">
-        <v>0.4284767338288429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.1129632906375227</v>
+      </c>
+      <c r="E59">
+        <v>0.004191059250942765</v>
+      </c>
+      <c r="F59">
+        <v>0.005502122814079261</v>
+      </c>
+      <c r="G59">
+        <v>0.007826766694529513</v>
+      </c>
+      <c r="H59">
+        <v>-0.0235187453883152</v>
+      </c>
+      <c r="I59">
+        <v>0.03904546939956872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2131491664549752</v>
+        <v>0.2408653577455117</v>
       </c>
       <c r="C60">
-        <v>0.08115755643562728</v>
+        <v>-0.004851402826104682</v>
       </c>
       <c r="D60">
-        <v>-0.004652107733229251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07225160896612658</v>
+      </c>
+      <c r="E60">
+        <v>-0.1469561134241718</v>
+      </c>
+      <c r="F60">
+        <v>0.02297149090572359</v>
+      </c>
+      <c r="G60">
+        <v>0.0007386893185067132</v>
+      </c>
+      <c r="H60">
+        <v>0.1489996648331549</v>
+      </c>
+      <c r="I60">
+        <v>0.1218435382242349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07878346501310927</v>
+        <v>0.08489956668980121</v>
       </c>
       <c r="C61">
-        <v>0.04439267487908975</v>
+        <v>-0.02065620731437359</v>
       </c>
       <c r="D61">
-        <v>-0.03480752887880362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05226066095520435</v>
+      </c>
+      <c r="E61">
+        <v>0.01398433070508669</v>
+      </c>
+      <c r="F61">
+        <v>0.0268634349950275</v>
+      </c>
+      <c r="G61">
+        <v>0.04026162976989214</v>
+      </c>
+      <c r="H61">
+        <v>-0.06815762414041612</v>
+      </c>
+      <c r="I61">
+        <v>-0.03700747118820317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1382455254838492</v>
+        <v>0.1427385431651992</v>
       </c>
       <c r="C62">
-        <v>0.04891095319938515</v>
+        <v>-0.02255204806919578</v>
       </c>
       <c r="D62">
-        <v>-0.00144252884961687</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04442541832453845</v>
+      </c>
+      <c r="E62">
+        <v>-0.04193415064170904</v>
+      </c>
+      <c r="F62">
+        <v>-0.03444314875437735</v>
+      </c>
+      <c r="G62">
+        <v>0.0556655652771165</v>
+      </c>
+      <c r="H62">
+        <v>-0.1938395870730948</v>
+      </c>
+      <c r="I62">
+        <v>0.1224274421872284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05702600693491323</v>
+        <v>0.05233883425521597</v>
       </c>
       <c r="C63">
-        <v>0.01607327223244622</v>
+        <v>-0.01286761458221182</v>
       </c>
       <c r="D63">
-        <v>-0.02448583692293826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0172938097774073</v>
+      </c>
+      <c r="E63">
+        <v>0.02952297627022749</v>
+      </c>
+      <c r="F63">
+        <v>0.01074284753856261</v>
+      </c>
+      <c r="G63">
+        <v>0.04858947936307335</v>
+      </c>
+      <c r="H63">
+        <v>-0.03153342841486587</v>
+      </c>
+      <c r="I63">
+        <v>-0.03530969092846742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1085415575825534</v>
+        <v>0.1127006829712459</v>
       </c>
       <c r="C64">
-        <v>0.02932880652405245</v>
+        <v>-0.009180634573081213</v>
       </c>
       <c r="D64">
-        <v>-0.01612037747418659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02852955950332911</v>
+      </c>
+      <c r="E64">
+        <v>0.03127634122182151</v>
+      </c>
+      <c r="F64">
+        <v>0.05741987939704938</v>
+      </c>
+      <c r="G64">
+        <v>0.04941857939708175</v>
+      </c>
+      <c r="H64">
+        <v>-0.01558024261419511</v>
+      </c>
+      <c r="I64">
+        <v>-0.05084566661630804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1285579328898649</v>
+        <v>0.1338201323571989</v>
       </c>
       <c r="C65">
-        <v>0.04657201783123446</v>
+        <v>0.01121052076398579</v>
       </c>
       <c r="D65">
-        <v>-0.01867875029149661</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03773344529844277</v>
+      </c>
+      <c r="E65">
+        <v>-0.001888550335491522</v>
+      </c>
+      <c r="F65">
+        <v>0.02931102191768474</v>
+      </c>
+      <c r="G65">
+        <v>0.09034674873650625</v>
+      </c>
+      <c r="H65">
+        <v>0.2040571343641211</v>
+      </c>
+      <c r="I65">
+        <v>-0.0435738794252309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.15432377161683</v>
+        <v>0.1489116660905757</v>
       </c>
       <c r="C66">
-        <v>0.07544402916012256</v>
+        <v>-0.0643938898887169</v>
       </c>
       <c r="D66">
-        <v>-0.09078637005888986</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09693054722664324</v>
+      </c>
+      <c r="E66">
+        <v>-0.008130658475651991</v>
+      </c>
+      <c r="F66">
+        <v>0.0105355352495512</v>
+      </c>
+      <c r="G66">
+        <v>0.08106693129578621</v>
+      </c>
+      <c r="H66">
+        <v>-0.07560041967951477</v>
+      </c>
+      <c r="I66">
+        <v>-0.1058957267558658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09383815767683447</v>
+        <v>0.09406107276978888</v>
       </c>
       <c r="C67">
-        <v>0.003923616200311834</v>
+        <v>-0.03433267875844603</v>
       </c>
       <c r="D67">
-        <v>-0.004765284684568882</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008680391005000296</v>
+      </c>
+      <c r="E67">
+        <v>0.007185690075588626</v>
+      </c>
+      <c r="F67">
+        <v>0.009346722845059904</v>
+      </c>
+      <c r="G67">
+        <v>-0.02599670877377949</v>
+      </c>
+      <c r="H67">
+        <v>-0.02223882005159421</v>
+      </c>
+      <c r="I67">
+        <v>-0.006696178583317346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04922192724156</v>
+        <v>0.06713822199102364</v>
       </c>
       <c r="C68">
-        <v>0.05674722024859279</v>
+        <v>0.2682556144754643</v>
       </c>
       <c r="D68">
-        <v>0.2518482565671811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.08259480134128284</v>
+      </c>
+      <c r="E68">
+        <v>0.03957280550176211</v>
+      </c>
+      <c r="F68">
+        <v>0.02139069405187359</v>
+      </c>
+      <c r="G68">
+        <v>-0.003790549473827575</v>
+      </c>
+      <c r="H68">
+        <v>-0.01944000026690225</v>
+      </c>
+      <c r="I68">
+        <v>-0.01822767305077561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06198961604620864</v>
+        <v>0.05483677357820538</v>
       </c>
       <c r="C69">
-        <v>0.01994521889564313</v>
+        <v>-0.01656536967926888</v>
       </c>
       <c r="D69">
-        <v>-0.0181475684602837</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01517208191712068</v>
+      </c>
+      <c r="E69">
+        <v>0.02848076526665944</v>
+      </c>
+      <c r="F69">
+        <v>-0.009660013532047061</v>
+      </c>
+      <c r="G69">
+        <v>-0.001412855313004521</v>
+      </c>
+      <c r="H69">
+        <v>-0.04137638445344396</v>
+      </c>
+      <c r="I69">
+        <v>-0.01802663851763679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.01049961885349898</v>
+        <v>0.03235626325828668</v>
       </c>
       <c r="C70">
-        <v>0.001837570217003412</v>
+        <v>0.004306650631292124</v>
       </c>
       <c r="D70">
-        <v>0.01595981634397261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.003474400787474603</v>
+      </c>
+      <c r="E70">
+        <v>-0.02322695383779718</v>
+      </c>
+      <c r="F70">
+        <v>-0.002019023194212186</v>
+      </c>
+      <c r="G70">
+        <v>-0.008269629501400283</v>
+      </c>
+      <c r="H70">
+        <v>0.0282688854349353</v>
+      </c>
+      <c r="I70">
+        <v>-0.0284035865230629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04872072241982626</v>
+        <v>0.074998947744042</v>
       </c>
       <c r="C71">
-        <v>0.05357976476064578</v>
+        <v>0.289227418559413</v>
       </c>
       <c r="D71">
-        <v>0.2849654137852637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.09259244371828704</v>
+      </c>
+      <c r="E71">
+        <v>0.02781894422510949</v>
+      </c>
+      <c r="F71">
+        <v>0.04601525172110078</v>
+      </c>
+      <c r="G71">
+        <v>-0.0003436005589470972</v>
+      </c>
+      <c r="H71">
+        <v>-0.02004545062898622</v>
+      </c>
+      <c r="I71">
+        <v>-0.01409914176211636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1436579136555997</v>
+        <v>0.1402258339316665</v>
       </c>
       <c r="C72">
-        <v>0.04440774021898763</v>
+        <v>0.01114912919417999</v>
       </c>
       <c r="D72">
-        <v>0.02345345636415023</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01138147053859108</v>
+      </c>
+      <c r="E72">
+        <v>-0.008251737145402352</v>
+      </c>
+      <c r="F72">
+        <v>-0.1662268646634102</v>
+      </c>
+      <c r="G72">
+        <v>0.1169531010747832</v>
+      </c>
+      <c r="H72">
+        <v>-0.0119023242640901</v>
+      </c>
+      <c r="I72">
+        <v>0.02418669173708867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2650892441772172</v>
+        <v>0.267348547739002</v>
       </c>
       <c r="C73">
-        <v>0.06555058771750841</v>
+        <v>-0.07407490859545962</v>
       </c>
       <c r="D73">
-        <v>-0.06504180442530136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06648212476663432</v>
+      </c>
+      <c r="E73">
+        <v>-0.3355851675996478</v>
+      </c>
+      <c r="F73">
+        <v>0.005932836632240111</v>
+      </c>
+      <c r="G73">
+        <v>-0.2177005662486788</v>
+      </c>
+      <c r="H73">
+        <v>0.3211226113782066</v>
+      </c>
+      <c r="I73">
+        <v>0.04636732294949134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08318977092057506</v>
+        <v>0.09163134035923209</v>
       </c>
       <c r="C74">
-        <v>0.07322981486399227</v>
+        <v>-0.006788422643725279</v>
       </c>
       <c r="D74">
-        <v>-0.01245614750865189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07168500321853662</v>
+      </c>
+      <c r="E74">
+        <v>0.0001992626019352534</v>
+      </c>
+      <c r="F74">
+        <v>0.0008635525419622004</v>
+      </c>
+      <c r="G74">
+        <v>-0.02805348086620774</v>
+      </c>
+      <c r="H74">
+        <v>-0.1288113682999975</v>
+      </c>
+      <c r="I74">
+        <v>0.02339685142322941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1129511709847376</v>
+        <v>0.105461200006615</v>
       </c>
       <c r="C75">
-        <v>0.04314591094282012</v>
+        <v>-0.01819112894484728</v>
       </c>
       <c r="D75">
-        <v>-0.009467631110885494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0266409836780751</v>
+      </c>
+      <c r="E75">
+        <v>0.005832683147950768</v>
+      </c>
+      <c r="F75">
+        <v>-0.005878302646703234</v>
+      </c>
+      <c r="G75">
+        <v>-0.005921891205580095</v>
+      </c>
+      <c r="H75">
+        <v>-0.1098541767477015</v>
+      </c>
+      <c r="I75">
+        <v>0.05730974327803449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1303027302192193</v>
+        <v>0.1364074025841674</v>
       </c>
       <c r="C76">
-        <v>0.06809103195405429</v>
+        <v>-0.0236486330879447</v>
       </c>
       <c r="D76">
-        <v>-0.03055450057296712</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0750396455061248</v>
+      </c>
+      <c r="E76">
+        <v>0.01238135253613237</v>
+      </c>
+      <c r="F76">
+        <v>0.038688350073121</v>
+      </c>
+      <c r="G76">
+        <v>0.02138504305457932</v>
+      </c>
+      <c r="H76">
+        <v>-0.2479844416514358</v>
+      </c>
+      <c r="I76">
+        <v>0.1078391574971681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1323762232120178</v>
+        <v>0.1019687925064273</v>
       </c>
       <c r="C77">
-        <v>-0.03016206446610519</v>
+        <v>-0.05901320506168915</v>
       </c>
       <c r="D77">
-        <v>-0.05709969232132674</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04356984857662043</v>
+      </c>
+      <c r="E77">
+        <v>0.110936513143494</v>
+      </c>
+      <c r="F77">
+        <v>0.07297653932821926</v>
+      </c>
+      <c r="G77">
+        <v>0.7731634391913693</v>
+      </c>
+      <c r="H77">
+        <v>0.3074266901014179</v>
+      </c>
+      <c r="I77">
+        <v>0.2475585816901752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1102311261299808</v>
+        <v>0.1516610191194801</v>
       </c>
       <c r="C78">
-        <v>0.02190059192022235</v>
+        <v>-0.04801566686725688</v>
       </c>
       <c r="D78">
-        <v>-0.07626128242760656</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06212289327201367</v>
+      </c>
+      <c r="E78">
+        <v>0.08801658347404627</v>
+      </c>
+      <c r="F78">
+        <v>0.06066393359728588</v>
+      </c>
+      <c r="G78">
+        <v>0.008137685405501848</v>
+      </c>
+      <c r="H78">
+        <v>0.1202050057890128</v>
+      </c>
+      <c r="I78">
+        <v>-0.02334503842646307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1417855758625946</v>
+        <v>0.1439119269603026</v>
       </c>
       <c r="C79">
-        <v>0.04590207687625057</v>
+        <v>-0.0277440536162946</v>
       </c>
       <c r="D79">
-        <v>-0.03391093555849094</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04372154446927429</v>
+      </c>
+      <c r="E79">
+        <v>-0.01303481577099681</v>
+      </c>
+      <c r="F79">
+        <v>0.01606849576873392</v>
+      </c>
+      <c r="G79">
+        <v>0.03289013419068601</v>
+      </c>
+      <c r="H79">
+        <v>-0.1767770293569896</v>
+      </c>
+      <c r="I79">
+        <v>0.08324672411227861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03395472744162702</v>
+        <v>0.03958704232097765</v>
       </c>
       <c r="C80">
-        <v>0.01443224061575175</v>
+        <v>-0.003959246411407824</v>
       </c>
       <c r="D80">
-        <v>-0.02886563376460538</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02231898853421028</v>
+      </c>
+      <c r="E80">
+        <v>-0.04987685238047591</v>
+      </c>
+      <c r="F80">
+        <v>0.0003255184001654023</v>
+      </c>
+      <c r="G80">
+        <v>-0.01843964317411229</v>
+      </c>
+      <c r="H80">
+        <v>-0.03577193849108494</v>
+      </c>
+      <c r="I80">
+        <v>-0.1302918940933546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1346721332225266</v>
+        <v>0.1312348574436915</v>
       </c>
       <c r="C81">
-        <v>0.06013854160786319</v>
+        <v>-0.009888516900763601</v>
       </c>
       <c r="D81">
-        <v>-0.0196492127622838</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04673275341280651</v>
+      </c>
+      <c r="E81">
+        <v>0.002798477957908298</v>
+      </c>
+      <c r="F81">
+        <v>0.0183944273139789</v>
+      </c>
+      <c r="G81">
+        <v>-0.0002172376290853108</v>
+      </c>
+      <c r="H81">
+        <v>-0.1631258607837753</v>
+      </c>
+      <c r="I81">
+        <v>0.02147366710221324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.130283268475614</v>
+        <v>0.1294317488499206</v>
       </c>
       <c r="C82">
-        <v>0.06121016371124278</v>
+        <v>-0.009655857650874069</v>
       </c>
       <c r="D82">
-        <v>-0.01521448122558268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05380345311122855</v>
+      </c>
+      <c r="E82">
+        <v>-0.01676367917724446</v>
+      </c>
+      <c r="F82">
+        <v>0.03201752163013465</v>
+      </c>
+      <c r="G82">
+        <v>-0.009557080668071722</v>
+      </c>
+      <c r="H82">
+        <v>-0.2358849626883843</v>
+      </c>
+      <c r="I82">
+        <v>0.1114451299933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06371582545372124</v>
+        <v>0.07895636497879023</v>
       </c>
       <c r="C83">
-        <v>-0.05372032421393921</v>
+        <v>-0.04229052809967345</v>
       </c>
       <c r="D83">
-        <v>-0.004018515223405171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04466680933044624</v>
+      </c>
+      <c r="E83">
+        <v>0.004911244514386548</v>
+      </c>
+      <c r="F83">
+        <v>0.04206090278599282</v>
+      </c>
+      <c r="G83">
+        <v>-0.07698244624529202</v>
+      </c>
+      <c r="H83">
+        <v>0.004374654830048706</v>
+      </c>
+      <c r="I83">
+        <v>-0.1215340359127199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03577025459089056</v>
+        <v>0.03434377549765847</v>
       </c>
       <c r="C84">
-        <v>0.02946129240843906</v>
+        <v>-0.02862179571465885</v>
       </c>
       <c r="D84">
-        <v>-0.03711056197206889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03638724344832234</v>
+      </c>
+      <c r="E84">
+        <v>0.03695508310400352</v>
+      </c>
+      <c r="F84">
+        <v>-0.03583879800515728</v>
+      </c>
+      <c r="G84">
+        <v>-0.03966736582292601</v>
+      </c>
+      <c r="H84">
+        <v>-0.03120235123495787</v>
+      </c>
+      <c r="I84">
+        <v>-0.09909470159378587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1171932405470313</v>
+        <v>0.1206505612226003</v>
       </c>
       <c r="C85">
-        <v>0.02623416038358731</v>
+        <v>-0.02819890676597873</v>
       </c>
       <c r="D85">
-        <v>-0.04011684415375354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03042929826585803</v>
+      </c>
+      <c r="E85">
+        <v>-0.007343014148789532</v>
+      </c>
+      <c r="F85">
+        <v>0.04286569312448917</v>
+      </c>
+      <c r="G85">
+        <v>0.008837275828299745</v>
+      </c>
+      <c r="H85">
+        <v>-0.1595606564967079</v>
+      </c>
+      <c r="I85">
+        <v>0.07385780164095991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.05768951327839658</v>
+        <v>0.05317085730576444</v>
       </c>
       <c r="C86">
-        <v>0.01713658346084656</v>
+        <v>-0.0356255801091265</v>
       </c>
       <c r="D86">
-        <v>-0.0694954171378098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02567334756416091</v>
+      </c>
+      <c r="E86">
+        <v>0.01603027238324944</v>
+      </c>
+      <c r="F86">
+        <v>0.02026448066522803</v>
+      </c>
+      <c r="G86">
+        <v>-0.02513352738196917</v>
+      </c>
+      <c r="H86">
+        <v>0.04275733737434572</v>
+      </c>
+      <c r="I86">
+        <v>0.005297392632718078</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.125425338249476</v>
+        <v>0.1275502704186482</v>
       </c>
       <c r="C87">
-        <v>0.0595043507309455</v>
+        <v>-0.05153848995108401</v>
       </c>
       <c r="D87">
-        <v>-0.08703604789414623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06745096272157027</v>
+      </c>
+      <c r="E87">
+        <v>0.05258709673942907</v>
+      </c>
+      <c r="F87">
+        <v>0.0348562751230357</v>
+      </c>
+      <c r="G87">
+        <v>0.1626580676563521</v>
+      </c>
+      <c r="H87">
+        <v>0.09435184462815314</v>
+      </c>
+      <c r="I87">
+        <v>0.002602534445005451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0588389604555252</v>
+        <v>0.0651585441119632</v>
       </c>
       <c r="C88">
-        <v>0.02755770506983146</v>
+        <v>-0.02560687937664969</v>
       </c>
       <c r="D88">
-        <v>-0.02724446880712578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03979618383680978</v>
+      </c>
+      <c r="E88">
+        <v>-0.001904843791476781</v>
+      </c>
+      <c r="F88">
+        <v>0.02326313908286016</v>
+      </c>
+      <c r="G88">
+        <v>0.007339057795951361</v>
+      </c>
+      <c r="H88">
+        <v>-0.03931542665014823</v>
+      </c>
+      <c r="I88">
+        <v>-0.03563554574839031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07557820780528239</v>
+        <v>0.1156521211589698</v>
       </c>
       <c r="C89">
-        <v>0.09167357547042684</v>
+        <v>0.3626498448993868</v>
       </c>
       <c r="D89">
-        <v>0.3149677513876074</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.08674995657512286</v>
+      </c>
+      <c r="E89">
+        <v>0.02890953751993684</v>
+      </c>
+      <c r="F89">
+        <v>0.08812643128188581</v>
+      </c>
+      <c r="G89">
+        <v>-0.02206190294947865</v>
+      </c>
+      <c r="H89">
+        <v>-0.02217123961393581</v>
+      </c>
+      <c r="I89">
+        <v>-0.08659250808513683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06710913543349403</v>
+        <v>0.08967735267294201</v>
       </c>
       <c r="C90">
-        <v>0.05524115984966752</v>
+        <v>0.2811054568182167</v>
       </c>
       <c r="D90">
-        <v>0.279967656606552</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.09476709465886093</v>
+      </c>
+      <c r="E90">
+        <v>0.03160090992933195</v>
+      </c>
+      <c r="F90">
+        <v>0.0354552386185995</v>
+      </c>
+      <c r="G90">
+        <v>0.01281816490575139</v>
+      </c>
+      <c r="H90">
+        <v>0.01238942455239593</v>
+      </c>
+      <c r="I90">
+        <v>-0.08066466809889547</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0983467785157925</v>
+        <v>0.0936952459667362</v>
       </c>
       <c r="C91">
-        <v>0.04626817113011685</v>
+        <v>-0.01744086997195972</v>
       </c>
       <c r="D91">
-        <v>-0.01582958330878895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03565474709534912</v>
+      </c>
+      <c r="E91">
+        <v>0.002135259135307009</v>
+      </c>
+      <c r="F91">
+        <v>0.003504093908059035</v>
+      </c>
+      <c r="G91">
+        <v>-0.01575463017524881</v>
+      </c>
+      <c r="H91">
+        <v>-0.08225508133780428</v>
+      </c>
+      <c r="I91">
+        <v>0.04610544773758644</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06267255499864456</v>
+        <v>0.08847350306907242</v>
       </c>
       <c r="C92">
-        <v>0.07704616805411811</v>
+        <v>0.3230031302482017</v>
       </c>
       <c r="D92">
-        <v>0.3203275903686017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.09300784036068736</v>
+      </c>
+      <c r="E92">
+        <v>0.03233675300825728</v>
+      </c>
+      <c r="F92">
+        <v>0.04490861739054554</v>
+      </c>
+      <c r="G92">
+        <v>0.001477707781613081</v>
+      </c>
+      <c r="H92">
+        <v>-0.03098803936249336</v>
+      </c>
+      <c r="I92">
+        <v>-0.02255077153501478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05810750354255913</v>
+        <v>0.08550735716184839</v>
       </c>
       <c r="C93">
-        <v>0.07071524620019</v>
+        <v>0.3052296525411838</v>
       </c>
       <c r="D93">
-        <v>0.3044314770559447</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.08435738050675977</v>
+      </c>
+      <c r="E93">
+        <v>0.004426145952735227</v>
+      </c>
+      <c r="F93">
+        <v>0.02641734190437152</v>
+      </c>
+      <c r="G93">
+        <v>0.009633351609065928</v>
+      </c>
+      <c r="H93">
+        <v>-0.002225230194932348</v>
+      </c>
+      <c r="I93">
+        <v>-0.01447702960992497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1277104570056361</v>
+        <v>0.1236947781955541</v>
       </c>
       <c r="C94">
-        <v>0.02616548851490996</v>
+        <v>-0.04126799292657463</v>
       </c>
       <c r="D94">
-        <v>-0.05627022113484331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02831664731814358</v>
+      </c>
+      <c r="E94">
+        <v>-0.002044682792767576</v>
+      </c>
+      <c r="F94">
+        <v>0.01307730629406396</v>
+      </c>
+      <c r="G94">
+        <v>-0.05937686226056309</v>
+      </c>
+      <c r="H94">
+        <v>-0.1081368216350187</v>
+      </c>
+      <c r="I94">
+        <v>0.05573490002955227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1229519201540843</v>
+        <v>0.1318458546828968</v>
       </c>
       <c r="C95">
-        <v>0.01048310039916019</v>
+        <v>-0.06212667693587424</v>
       </c>
       <c r="D95">
-        <v>-0.07760195646040943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.02906771094133362</v>
+      </c>
+      <c r="E95">
+        <v>0.009023531218653713</v>
+      </c>
+      <c r="F95">
+        <v>0.04585319661522547</v>
+      </c>
+      <c r="G95">
+        <v>0.04043299056847775</v>
+      </c>
+      <c r="H95">
+        <v>0.1208779255530821</v>
+      </c>
+      <c r="I95">
+        <v>-0.05963529987737785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2348352570082183</v>
+        <v>0.1906525321042976</v>
       </c>
       <c r="C97">
-        <v>0.05916266066770316</v>
+        <v>0.03208278469365425</v>
       </c>
       <c r="D97">
-        <v>0.0958064864585819</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.04710115561122914</v>
+      </c>
+      <c r="E97">
+        <v>0.1383976175734293</v>
+      </c>
+      <c r="F97">
+        <v>-0.9258980709486291</v>
+      </c>
+      <c r="G97">
+        <v>0.05812523053254216</v>
+      </c>
+      <c r="H97">
+        <v>0.006214301432390883</v>
+      </c>
+      <c r="I97">
+        <v>-0.09262289639594184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2573661956281129</v>
+        <v>0.2842241573331542</v>
       </c>
       <c r="C98">
-        <v>0.0708212701101496</v>
+        <v>-0.03460792236941124</v>
       </c>
       <c r="D98">
-        <v>-0.03961310116920117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06338922725280671</v>
+      </c>
+      <c r="E98">
+        <v>-0.2595910496318694</v>
+      </c>
+      <c r="F98">
+        <v>-0.03536458169114007</v>
+      </c>
+      <c r="G98">
+        <v>-0.2713262383441931</v>
+      </c>
+      <c r="H98">
+        <v>0.2110080919250046</v>
+      </c>
+      <c r="I98">
+        <v>0.1948379317364998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3460848066313391</v>
+        <v>0.2266205611945255</v>
       </c>
       <c r="C99">
-        <v>-0.9084100851746745</v>
+        <v>-0.3361949351853674</v>
       </c>
       <c r="D99">
-        <v>0.1302208759996216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.8863818452137989</v>
+      </c>
+      <c r="E99">
+        <v>-0.03358579735790806</v>
+      </c>
+      <c r="F99">
+        <v>0.07707844397544379</v>
+      </c>
+      <c r="G99">
+        <v>-0.01962426498016134</v>
+      </c>
+      <c r="H99">
+        <v>-0.1030854072927798</v>
+      </c>
+      <c r="I99">
+        <v>0.01345431269384149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.05002442052556847</v>
+        <v>0.05263657437399206</v>
       </c>
       <c r="C101">
-        <v>0.04126388847828263</v>
+        <v>0.003698688237234036</v>
       </c>
       <c r="D101">
-        <v>-0.004917100209505359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03675896515511223</v>
+      </c>
+      <c r="E101">
+        <v>0.03937909509531125</v>
+      </c>
+      <c r="F101">
+        <v>0.03645846248171748</v>
+      </c>
+      <c r="G101">
+        <v>0.006548863792412432</v>
+      </c>
+      <c r="H101">
+        <v>-0.08841538359538476</v>
+      </c>
+      <c r="I101">
+        <v>-0.05067192162323853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
